--- a/jupyter_notebooks/file/input/different_time_steps_v1/network.xlsx
+++ b/jupyter_notebooks/file/input/different_time_steps_v1/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\test\file\input\different_time_steps_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\different_time_steps_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B9354-F6C8-4045-B762-4BD026B8A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B72606E-E21F-46FC-BB6B-42220E89BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="profiles" sheetId="11" r:id="rId12"/>
     <sheet name="profiles_creation" sheetId="14" r:id="rId13"/>
     <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="switches" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -556,6 +557,24 @@
   </si>
   <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>in_ka</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>associated elements</t>
+  </si>
+  <si>
+    <t>ignore montecarlo</t>
   </si>
 </sst>
 </file>
@@ -907,15 +926,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -926,7 +945,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -941,7 +960,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -952,7 +971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -963,7 +982,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -988,21 +1007,21 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1070,19 +1089,19 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1178,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1192,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1206,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1220,7 +1239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1262,7 +1281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1276,7 +1295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1332,16 +1351,16 @@
       <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1370,7 +1389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1399,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1437,7 +1456,7 @@
         <v>21.371639409315751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(0,30,0)</f>
         <v>44562.020833333336</v>
@@ -1475,7 +1494,7 @@
         <v>21.371639409315751</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A68" si="0">A4+TIME(0,30,0)</f>
         <v>44562.041666666672</v>
@@ -1513,7 +1532,7 @@
         <v>28.105959665329753</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>44562.062500000007</v>
@@ -1551,7 +1570,7 @@
         <v>28.105959665329753</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44562.083333333343</v>
@@ -1589,7 +1608,7 @@
         <v>9.1282470045272994</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>44562.104166666679</v>
@@ -1627,7 +1646,7 @@
         <v>9.1282470045272994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>44562.125000000015</v>
@@ -1665,7 +1684,7 @@
         <v>15.708574163724149</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>44562.14583333335</v>
@@ -1703,7 +1722,7 @@
         <v>15.708574163724149</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44562.166666666686</v>
@@ -1741,7 +1760,7 @@
         <v>12.2020182929984</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>44562.187500000022</v>
@@ -1779,7 +1798,7 @@
         <v>12.2020182929984</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>44562.208333333358</v>
@@ -1817,7 +1836,7 @@
         <v>8.4403475853385999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>44562.229166666693</v>
@@ -1855,7 +1874,7 @@
         <v>8.4403475853385999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>44562.250000000029</v>
@@ -1893,7 +1912,7 @@
         <v>28.807963169901448</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>44562.270833333365</v>
@@ -1931,7 +1950,7 @@
         <v>28.807963169901448</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>44562.291666666701</v>
@@ -1969,7 +1988,7 @@
         <v>22.373377782791152</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>44562.312500000036</v>
@@ -2007,7 +2026,7 @@
         <v>22.373377782791152</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>44562.333333333372</v>
@@ -2045,7 +2064,7 @@
         <v>4.9616913424379501</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>44562.354166666708</v>
@@ -2083,7 +2102,7 @@
         <v>4.9616913424379501</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>44562.375000000044</v>
@@ -2121,7 +2140,7 @@
         <v>7.2522069367350497</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>44562.395833333379</v>
@@ -2159,7 +2178,7 @@
         <v>7.2522069367350497</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>44562.416666666715</v>
@@ -2197,7 +2216,7 @@
         <v>17.212243949782501</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>44562.437500000051</v>
@@ -2235,7 +2254,7 @@
         <v>17.212243949782501</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>44562.458333333387</v>
@@ -2273,7 +2292,7 @@
         <v>14.492097950783201</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>44562.479166666722</v>
@@ -2311,7 +2330,7 @@
         <v>14.492097950783201</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>44562.500000000058</v>
@@ -2349,7 +2368,7 @@
         <v>1.3686658934214349</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>44562.520833333394</v>
@@ -2387,7 +2406,7 @@
         <v>1.3686658934214349</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>44562.54166666673</v>
@@ -2425,7 +2444,7 @@
         <v>11.417938080505099</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>44562.562500000065</v>
@@ -2463,7 +2482,7 @@
         <v>11.417938080505099</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>44562.583333333401</v>
@@ -2501,7 +2520,7 @@
         <v>16.021186417961001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>44562.604166666737</v>
@@ -2539,7 +2558,7 @@
         <v>16.021186417961001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>44562.625000000073</v>
@@ -2577,7 +2596,7 @@
         <v>21.7746678352377</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>44562.645833333409</v>
@@ -2615,7 +2634,7 @@
         <v>21.7746678352377</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>44562.666666666744</v>
@@ -2653,7 +2672,7 @@
         <v>7.2052768923937007</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>44562.68750000008</v>
@@ -2691,7 +2710,7 @@
         <v>7.2052768923937007</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>44562.708333333416</v>
@@ -2729,7 +2748,7 @@
         <v>5.3483354798130502</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>44562.729166666752</v>
@@ -2767,7 +2786,7 @@
         <v>5.3483354798130502</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>44562.750000000087</v>
@@ -2805,7 +2824,7 @@
         <v>10.881664988415249</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>44562.770833333423</v>
@@ -2843,7 +2862,7 @@
         <v>10.881664988415249</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>44562.791666666759</v>
@@ -2881,7 +2900,7 @@
         <v>8.1500039867009999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>44562.812500000095</v>
@@ -2919,7 +2938,7 @@
         <v>8.1500039867009999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>44562.83333333343</v>
@@ -2957,7 +2976,7 @@
         <v>26.956796269977652</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>44562.854166666766</v>
@@ -2995,7 +3014,7 @@
         <v>26.956796269977652</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44562.875000000102</v>
@@ -3033,7 +3052,7 @@
         <v>13.1230883033355</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44562.895833333438</v>
@@ -3071,7 +3090,7 @@
         <v>13.1230883033355</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44562.916666666773</v>
@@ -3109,7 +3128,7 @@
         <v>8.8088712856655</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>44562.937500000109</v>
@@ -3147,7 +3166,7 @@
         <v>8.8088712856655</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>44562.958333333445</v>
@@ -3185,7 +3204,7 @@
         <v>17.264486743835</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>44562.979166666781</v>
@@ -3223,7 +3242,7 @@
         <v>17.264486743835</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>44563.000000000116</v>
@@ -3261,7 +3280,7 @@
         <v>21.30123747192275</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>44563.020833333452</v>
@@ -3299,7 +3318,7 @@
         <v>21.30123747192275</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>44563.041666666788</v>
@@ -3337,7 +3356,7 @@
         <v>29.080919589563102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>44563.062500000124</v>
@@ -3375,7 +3394,7 @@
         <v>29.080919589563102</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>44563.083333333459</v>
@@ -3413,7 +3432,7 @@
         <v>7.30968287190335</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>44563.104166666795</v>
@@ -3451,7 +3470,7 @@
         <v>7.30968287190335</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>44563.125000000131</v>
@@ -3489,7 +3508,7 @@
         <v>8.2955889811806998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>44563.145833333467</v>
@@ -3527,7 +3546,7 @@
         <v>8.2955889811806998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>44563.166666666802</v>
@@ -3565,7 +3584,7 @@
         <v>27.29881060630365</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>44563.187500000138</v>
@@ -3603,7 +3622,7 @@
         <v>27.29881060630365</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>44563.208333333474</v>
@@ -3641,7 +3660,7 @@
         <v>6.2590960407578997</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>44563.22916666681</v>
@@ -3679,7 +3698,7 @@
         <v>6.2590960407578997</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>44563.250000000146</v>
@@ -3717,7 +3736,7 @@
         <v>16.754563657699052</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>44563.270833333481</v>
@@ -3755,7 +3774,7 @@
         <v>16.754563657699052</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>44563.291666666817</v>
@@ -3793,7 +3812,7 @@
         <v>26.55783872232465</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>44563.312500000153</v>
@@ -3831,7 +3850,7 @@
         <v>26.55783872232465</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>44563.333333333489</v>
@@ -3869,7 +3888,7 @@
         <v>27.360605552400699</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>44563.354166666824</v>
@@ -3907,7 +3926,7 @@
         <v>27.360605552400699</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <f t="shared" ref="A69:A98" si="1">A68+TIME(0,30,0)</f>
         <v>44563.37500000016</v>
@@ -3945,7 +3964,7 @@
         <v>20.850242364518451</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <f t="shared" si="1"/>
         <v>44563.395833333496</v>
@@ -3983,7 +4002,7 @@
         <v>20.850242364518451</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <f t="shared" si="1"/>
         <v>44563.416666666832</v>
@@ -4021,7 +4040,7 @@
         <v>28.6750511358761</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <f t="shared" si="1"/>
         <v>44563.437500000167</v>
@@ -4059,7 +4078,7 @@
         <v>28.6750511358761</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <f t="shared" si="1"/>
         <v>44563.458333333503</v>
@@ -4097,7 +4116,7 @@
         <v>15.266009289393949</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <f t="shared" si="1"/>
         <v>44563.479166666839</v>
@@ -4135,7 +4154,7 @@
         <v>15.266009289393949</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <f t="shared" si="1"/>
         <v>44563.500000000175</v>
@@ -4173,7 +4192,7 @@
         <v>22.563764908730903</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <f t="shared" si="1"/>
         <v>44563.52083333351</v>
@@ -4211,7 +4230,7 @@
         <v>22.563764908730903</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>44563.541666666846</v>
@@ -4249,7 +4268,7 @@
         <v>9.0941284141763497</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <f t="shared" si="1"/>
         <v>44563.562500000182</v>
@@ -4287,7 +4306,7 @@
         <v>9.0941284141763497</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <f t="shared" si="1"/>
         <v>44563.583333333518</v>
@@ -4325,7 +4344,7 @@
         <v>20.835089735846001</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <f t="shared" si="1"/>
         <v>44563.604166666853</v>
@@ -4363,7 +4382,7 @@
         <v>20.835089735846001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <f t="shared" si="1"/>
         <v>44563.625000000189</v>
@@ -4401,7 +4420,7 @@
         <v>25.072970954939052</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <f t="shared" si="1"/>
         <v>44563.645833333525</v>
@@ -4439,7 +4458,7 @@
         <v>25.072970954939052</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <f t="shared" si="1"/>
         <v>44563.666666666861</v>
@@ -4477,7 +4496,7 @@
         <v>23.1017837324544</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <f t="shared" si="1"/>
         <v>44563.687500000196</v>
@@ -4515,7 +4534,7 @@
         <v>23.1017837324544</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <f t="shared" si="1"/>
         <v>44563.708333333532</v>
@@ -4553,7 +4572,7 @@
         <v>15.93018651585025</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <f t="shared" si="1"/>
         <v>44563.729166666868</v>
@@ -4591,7 +4610,7 @@
         <v>15.93018651585025</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>44563.750000000204</v>
@@ -4629,7 +4648,7 @@
         <v>7.2710561235541507</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <f t="shared" si="1"/>
         <v>44563.770833333539</v>
@@ -4667,7 +4686,7 @@
         <v>7.2710561235541507</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <f t="shared" si="1"/>
         <v>44563.791666666875</v>
@@ -4705,7 +4724,7 @@
         <v>2.9321478799559801</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <f t="shared" si="1"/>
         <v>44563.812500000211</v>
@@ -4743,7 +4762,7 @@
         <v>2.9321478799559801</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <f t="shared" si="1"/>
         <v>44563.833333333547</v>
@@ -4781,7 +4800,7 @@
         <v>10.4956875711216</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <f t="shared" si="1"/>
         <v>44563.854166666883</v>
@@ -4819,7 +4838,7 @@
         <v>10.4956875711216</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <f t="shared" si="1"/>
         <v>44563.875000000218</v>
@@ -4857,7 +4876,7 @@
         <v>27.439705498793199</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <f t="shared" si="1"/>
         <v>44563.895833333554</v>
@@ -4895,7 +4914,7 @@
         <v>27.439705498793199</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <f t="shared" si="1"/>
         <v>44563.91666666689</v>
@@ -4933,7 +4952,7 @@
         <v>25.294130966796452</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <f t="shared" si="1"/>
         <v>44563.937500000226</v>
@@ -4971,7 +4990,7 @@
         <v>25.294130966796452</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <f t="shared" si="1"/>
         <v>44563.958333333561</v>
@@ -5009,7 +5028,7 @@
         <v>22.102806240620598</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <f t="shared" si="1"/>
         <v>44563.979166666897</v>
@@ -5047,7 +5066,7 @@
         <v>22.102806240620598</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -5068,16 +5087,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F651C6-CF99-4814-9056-291C23C9B382}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -5103,7 +5122,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -5133,9 +5152,9 @@
         <v>21.371639409315751</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <f>A2+TIME(1,0,0)</f>
+        <f t="shared" ref="A3:A49" si="0">A2+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
       </c>
       <c r="B3">
@@ -5163,9 +5182,9 @@
         <v>28.105959665329753</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <f>A3+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.083333333328</v>
       </c>
       <c r="B4">
@@ -5193,9 +5212,9 @@
         <v>9.1282470045272994</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f>A4+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.124999999993</v>
       </c>
       <c r="B5">
@@ -5223,9 +5242,9 @@
         <v>15.708574163724149</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <f>A5+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.166666666657</v>
       </c>
       <c r="B6">
@@ -5253,9 +5272,9 @@
         <v>12.2020182929984</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <f>A6+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.208333333321</v>
       </c>
       <c r="B7">
@@ -5283,9 +5302,9 @@
         <v>8.4403475853385999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <f>A7+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.249999999985</v>
       </c>
       <c r="B8">
@@ -5313,9 +5332,9 @@
         <v>28.807963169901448</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f>A8+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.29166666665</v>
       </c>
       <c r="B9">
@@ -5343,9 +5362,9 @@
         <v>22.373377782791152</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f>A9+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.333333333314</v>
       </c>
       <c r="B10">
@@ -5373,9 +5392,9 @@
         <v>4.9616913424379501</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f>A10+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.374999999978</v>
       </c>
       <c r="B11">
@@ -5403,9 +5422,9 @@
         <v>7.2522069367350497</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f>A11+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.416666666642</v>
       </c>
       <c r="B12">
@@ -5433,9 +5452,9 @@
         <v>17.212243949782501</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f>A12+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.458333333307</v>
       </c>
       <c r="B13">
@@ -5463,9 +5482,9 @@
         <v>14.492097950783201</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f>A13+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.499999999971</v>
       </c>
       <c r="B14">
@@ -5493,9 +5512,9 @@
         <v>1.3686658934214349</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f>A14+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.541666666635</v>
       </c>
       <c r="B15">
@@ -5523,9 +5542,9 @@
         <v>11.417938080505099</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f>A15+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.583333333299</v>
       </c>
       <c r="B16">
@@ -5553,9 +5572,9 @@
         <v>16.021186417961001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f>A16+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.624999999964</v>
       </c>
       <c r="B17">
@@ -5583,9 +5602,9 @@
         <v>21.7746678352377</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <f>A17+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.666666666628</v>
       </c>
       <c r="B18">
@@ -5613,9 +5632,9 @@
         <v>7.2052768923937007</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <f>A18+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.708333333292</v>
       </c>
       <c r="B19">
@@ -5643,9 +5662,9 @@
         <v>5.3483354798130502</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <f>A19+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.749999999956</v>
       </c>
       <c r="B20">
@@ -5673,9 +5692,9 @@
         <v>10.881664988415249</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <f>A20+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.791666666621</v>
       </c>
       <c r="B21">
@@ -5703,9 +5722,9 @@
         <v>8.1500039867009999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <f>A21+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.833333333285</v>
       </c>
       <c r="B22">
@@ -5733,9 +5752,9 @@
         <v>26.956796269977652</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <f>A22+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.874999999949</v>
       </c>
       <c r="B23">
@@ -5763,9 +5782,9 @@
         <v>13.1230883033355</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <f>A23+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.916666666613</v>
       </c>
       <c r="B24">
@@ -5793,9 +5812,9 @@
         <v>8.8088712856655</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f>A24+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.958333333278</v>
       </c>
       <c r="B25">
@@ -5823,9 +5842,9 @@
         <v>17.264486743835</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f>A25+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44562.999999999942</v>
       </c>
       <c r="B26">
@@ -5853,9 +5872,9 @@
         <v>21.30123747192275</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f>A26+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.041666666606</v>
       </c>
       <c r="B27">
@@ -5883,9 +5902,9 @@
         <v>29.080919589563102</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f>A27+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.08333333327</v>
       </c>
       <c r="B28">
@@ -5913,9 +5932,9 @@
         <v>7.30968287190335</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f>A28+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.124999999935</v>
       </c>
       <c r="B29">
@@ -5943,9 +5962,9 @@
         <v>8.2955889811806998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f>A29+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.166666666599</v>
       </c>
       <c r="B30">
@@ -5973,9 +5992,9 @@
         <v>27.29881060630365</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f>A30+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.208333333263</v>
       </c>
       <c r="B31">
@@ -6003,9 +6022,9 @@
         <v>6.2590960407578997</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f>A31+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.249999999927</v>
       </c>
       <c r="B32">
@@ -6033,9 +6052,9 @@
         <v>16.754563657699052</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f>A32+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.291666666591</v>
       </c>
       <c r="B33">
@@ -6063,9 +6082,9 @@
         <v>26.55783872232465</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f>A33+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.333333333256</v>
       </c>
       <c r="B34">
@@ -6093,9 +6112,9 @@
         <v>27.360605552400699</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f>A34+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.37499999992</v>
       </c>
       <c r="B35">
@@ -6123,9 +6142,9 @@
         <v>20.850242364518451</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <f>A35+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.416666666584</v>
       </c>
       <c r="B36">
@@ -6153,9 +6172,9 @@
         <v>28.6750511358761</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <f>A36+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.458333333248</v>
       </c>
       <c r="B37">
@@ -6183,9 +6202,9 @@
         <v>15.266009289393949</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f>A37+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.499999999913</v>
       </c>
       <c r="B38">
@@ -6213,9 +6232,9 @@
         <v>22.563764908730903</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <f>A38+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.541666666577</v>
       </c>
       <c r="B39">
@@ -6243,9 +6262,9 @@
         <v>9.0941284141763497</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f>A39+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.583333333241</v>
       </c>
       <c r="B40">
@@ -6273,9 +6292,9 @@
         <v>20.835089735846001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <f>A40+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.624999999905</v>
       </c>
       <c r="B41">
@@ -6303,9 +6322,9 @@
         <v>25.072970954939052</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <f>A41+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.66666666657</v>
       </c>
       <c r="B42">
@@ -6333,9 +6352,9 @@
         <v>23.1017837324544</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <f>A42+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.708333333234</v>
       </c>
       <c r="B43">
@@ -6363,9 +6382,9 @@
         <v>15.93018651585025</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <f>A43+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.749999999898</v>
       </c>
       <c r="B44">
@@ -6393,9 +6412,9 @@
         <v>7.2710561235541507</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <f>A44+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.791666666562</v>
       </c>
       <c r="B45">
@@ -6423,9 +6442,9 @@
         <v>2.9321478799559801</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <f>A45+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.833333333227</v>
       </c>
       <c r="B46">
@@ -6453,9 +6472,9 @@
         <v>10.4956875711216</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <f>A46+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.874999999891</v>
       </c>
       <c r="B47">
@@ -6483,9 +6502,9 @@
         <v>27.439705498793199</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <f>A47+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.916666666555</v>
       </c>
       <c r="B48">
@@ -6513,9 +6532,9 @@
         <v>25.294130966796452</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <f>A48+TIME(1,0,0)</f>
+        <f t="shared" si="0"/>
         <v>44563.958333333219</v>
       </c>
       <c r="B49">
@@ -6556,33 +6575,130 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96BD95-0583-4226-845A-DCB4735FB3B1}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6595,9 +6711,9 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6608,7 +6724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -6629,19 +6745,19 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6688,7 +6804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6719,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6742,7 +6858,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6767,7 +6883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6792,7 +6908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -6817,7 +6933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -6842,7 +6958,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -6867,7 +6983,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -6892,7 +7008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -6917,7 +7033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -6942,7 +7058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -6967,7 +7083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -6992,7 +7108,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -7017,7 +7133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -7042,7 +7158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -7067,7 +7183,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -7092,7 +7208,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -7117,7 +7233,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -7157,26 +7273,26 @@
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7223,7 +7339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -7246,7 +7362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -7269,7 +7385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7292,7 +7408,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -7315,7 +7431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -7338,7 +7454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -7361,7 +7477,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -7384,7 +7500,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -7420,34 +7536,34 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7521,7 +7637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -7545,7 +7661,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -7569,7 +7685,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7593,7 +7709,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -7617,7 +7733,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -7641,7 +7757,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -7665,7 +7781,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
     </row>
@@ -7682,28 +7798,28 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7756,7 +7872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7792,27 +7908,27 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7862,7 +7978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7925,21 +8041,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7971,7 +8087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8004,27 +8120,27 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8074,7 +8190,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8103,7 +8219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -8132,7 +8248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -8161,7 +8277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -8190,7 +8306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -8219,7 +8335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -8248,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -8277,7 +8393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -8306,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -8335,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -8364,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -8393,7 +8509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -8422,7 +8538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -8451,7 +8567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -8480,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -8509,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
